--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>BASE_CURRENCY</t>
   </si>
@@ -32,43 +32,61 @@
     <t>AED</t>
   </si>
   <si>
-    <t>2023-02-19T17:20:42.660471500</t>
+    <t>2023-02-22T22:36:45.366552300</t>
   </si>
   <si>
     <t>CAD</t>
   </si>
   <si>
-    <t>2023-02-19T17:20:42.661468100</t>
+    <t>2023-02-22T22:36:45.368544300</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>2023-02-19T17:20:42.663627300</t>
-  </si>
-  <si>
     <t>INR</t>
   </si>
   <si>
-    <t>2023-02-19T17:20:42.664685</t>
+    <t>2023-02-22T22:36:45.369578500</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>2023-02-19T17:20:42.666650900</t>
-  </si>
-  <si>
-    <t>2023-02-19T17:21:14.243220800</t>
-  </si>
-  <si>
-    <t>2023-02-19T17:21:14.244217200</t>
-  </si>
-  <si>
-    <t>2023-02-19T17:21:14.245214900</t>
-  </si>
-  <si>
-    <t>2023-02-19T17:21:14.246213600</t>
+    <t>2023-02-22T22:36:45.370609800</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:37:42.812055</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:37:42.814048</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:37:42.815044900</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:38:58.863371100</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:38:58.864381200</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:38:58.865376900</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:38:58.866373900</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:38:58.867370300</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:39:22.249014500</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:39:22.250010700</t>
+  </si>
+  <si>
+    <t>2023-02-22T22:39:22.251007500</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.34755</v>
+        <v>1.33885</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -169,10 +187,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.932804</v>
+        <v>0.93445</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -180,13 +198,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82.520504</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82.765504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -194,13 +212,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>131.41504</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>134.11504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -214,7 +232,7 @@
         <v>3.673042</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -228,7 +246,7 @@
         <v>1.33885</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -242,7 +260,7 @@
         <v>0.93445</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -250,13 +268,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>82.520504</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +282,153 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
         <v>131.41504</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.673042</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.33885</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.93445</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.520504</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>131.41504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.673042</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.33885</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.93445</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>82.520504</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>131.41504</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>BASE_CURRENCY</t>
   </si>
@@ -32,31 +32,46 @@
     <t>AED</t>
   </si>
   <si>
-    <t>2023-02-24T21:50:42.653079800</t>
+    <t>2023-02-25T12:57:53.565047800</t>
   </si>
   <si>
     <t>CAD</t>
   </si>
   <si>
-    <t>2023-02-24T21:50:42.654958900</t>
+    <t>2023-02-25T12:57:53.567036600</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>2023-02-24T21:50:42.655962400</t>
+    <t>2023-02-25T12:57:53.569033100</t>
   </si>
   <si>
     <t>INR</t>
   </si>
   <si>
-    <t>2023-02-24T21:50:42.657230100</t>
+    <t>2023-02-25T12:57:53.571746900</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>2023-02-24T21:50:42.659753800</t>
+    <t>2023-02-25T12:57:53.574198700</t>
+  </si>
+  <si>
+    <t>2023-02-25T14:31:06.268605900</t>
+  </si>
+  <si>
+    <t>2023-02-25T14:31:06.272080200</t>
+  </si>
+  <si>
+    <t>2023-02-25T14:31:06.275105100</t>
+  </si>
+  <si>
+    <t>2023-02-25T14:31:06.277097800</t>
+  </si>
+  <si>
+    <t>2023-02-25T14:31:06.280087300</t>
   </si>
 </sst>
 </file>
@@ -191,6 +206,76 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.67331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.005113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.746365</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53.806031</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>93.786996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
